--- a/data/trans_orig/P19E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C144D6C-97A1-47B2-BDBB-9B20D5FBEEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2200AB-F1B1-4D07-9C3A-6BEC70C2BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE9017AF-8B35-418F-B82A-2909A90D50D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65BC7355-8E5A-4DD9-900E-8F88C46463D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="522">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>30,23%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,28 +105,28 @@
     <t>28,92%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>36,31%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>Una vez al dia</t>
@@ -135,1432 +135,1474 @@
     <t>25,12%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>3,04%</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F67501-1FE5-4A02-AF42-C86A9D9F0A1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDAA7B4-E880-4BE8-B301-31E945CE0DB1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2470,13 +2512,13 @@
         <v>181529</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>355</v>
@@ -2485,13 +2527,13 @@
         <v>361458</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2548,13 @@
         <v>126291</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -2521,13 +2563,13 @@
         <v>121284</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>242</v>
@@ -2536,13 +2578,13 @@
         <v>247575</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2599,13 @@
         <v>19669</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2572,13 +2614,13 @@
         <v>14595</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2587,13 +2629,13 @@
         <v>34264</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2650,13 @@
         <v>58555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -2623,13 +2665,13 @@
         <v>24923</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -2638,13 +2680,13 @@
         <v>83478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2742,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2712,13 +2754,13 @@
         <v>333982</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>397</v>
@@ -2727,13 +2769,13 @@
         <v>421371</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>705</v>
@@ -2742,13 +2784,13 @@
         <v>755353</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2805,13 @@
         <v>308074</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -2778,13 +2820,13 @@
         <v>360104</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>625</v>
@@ -2793,13 +2835,13 @@
         <v>668178</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2856,13 @@
         <v>265109</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>181</v>
@@ -2829,13 +2871,13 @@
         <v>192654</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>428</v>
@@ -2844,10 +2886,10 @@
         <v>457763</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>133</v>
@@ -2883,10 +2925,10 @@
         <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2895,13 +2937,13 @@
         <v>37781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2958,13 @@
         <v>74500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2931,13 +2973,13 @@
         <v>41520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2946,13 +2988,13 @@
         <v>116020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +3050,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3062,13 @@
         <v>232335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -3035,13 +3077,13 @@
         <v>314956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>510</v>
@@ -3050,13 +3092,13 @@
         <v>547291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3113,13 @@
         <v>190817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>213</v>
@@ -3086,13 +3128,13 @@
         <v>225913</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>392</v>
@@ -3101,13 +3143,13 @@
         <v>416730</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3164,13 @@
         <v>212997</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -3137,13 +3179,13 @@
         <v>158789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>342</v>
@@ -3152,13 +3194,13 @@
         <v>371786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3215,13 @@
         <v>29393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3188,13 +3230,13 @@
         <v>24259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3203,13 +3245,13 @@
         <v>53652</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3266,13 @@
         <v>56088</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -3239,13 +3281,13 @@
         <v>26039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -3254,13 +3296,13 @@
         <v>82127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3358,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3328,13 +3370,13 @@
         <v>404292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>494</v>
@@ -3343,13 +3385,13 @@
         <v>530331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>893</v>
@@ -3358,13 +3400,13 @@
         <v>934623</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3421,13 @@
         <v>278614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>289</v>
@@ -3394,13 +3436,13 @@
         <v>313673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>565</v>
@@ -3409,13 +3451,13 @@
         <v>592287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3472,13 @@
         <v>172450</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>122</v>
@@ -3445,13 +3487,13 @@
         <v>137072</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -3460,13 +3502,13 @@
         <v>309521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3523,13 @@
         <v>21842</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -3496,13 +3538,13 @@
         <v>10046</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -3514,10 +3556,10 @@
         <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3574,13 @@
         <v>40084</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -3547,13 +3589,13 @@
         <v>25119</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -3562,13 +3604,13 @@
         <v>65203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3637,7 @@
         <v>935</v>
       </c>
       <c r="I33" s="7">
-        <v>1016241</v>
+        <v>1016242</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3636,13 +3678,13 @@
         <v>1159819</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>1420</v>
@@ -3651,13 +3693,13 @@
         <v>1498161</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>2517</v>
@@ -3666,13 +3708,13 @@
         <v>2657980</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3729,13 @@
         <v>990542</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H35" s="7">
         <v>1071</v>
@@ -3702,13 +3744,13 @@
         <v>1130839</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M35" s="7">
         <v>2020</v>
@@ -3717,13 +3759,13 @@
         <v>2121381</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3780,13 @@
         <v>805598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>605</v>
@@ -3753,13 +3795,13 @@
         <v>640242</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>1371</v>
@@ -3768,13 +3810,13 @@
         <v>1445840</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3831,13 @@
         <v>98463</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -3804,13 +3846,13 @@
         <v>62807</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
@@ -3819,13 +3861,13 @@
         <v>161270</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3882,13 @@
         <v>243546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -3855,13 +3897,13 @@
         <v>123593</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>341</v>
@@ -3870,13 +3912,13 @@
         <v>367138</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,7 +3974,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0DF17A-3488-4064-A243-70FB62CB858C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2342C8F-368C-4B92-8559-EDF977FC46B9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3970,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4077,13 +4119,13 @@
         <v>25246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -4092,13 +4134,13 @@
         <v>47684</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -4107,13 +4149,13 @@
         <v>72931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4170,13 @@
         <v>31382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -4143,13 +4185,13 @@
         <v>48430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>129</v>
@@ -4158,13 +4200,13 @@
         <v>79813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4221,13 @@
         <v>32428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -4194,13 +4236,13 @@
         <v>25237</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -4209,13 +4251,13 @@
         <v>57665</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4272,13 @@
         <v>3407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4245,13 +4287,13 @@
         <v>459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4260,13 +4302,13 @@
         <v>3866</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4323,13 @@
         <v>7702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4296,13 +4338,13 @@
         <v>7019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4311,13 +4353,13 @@
         <v>14721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4427,13 @@
         <v>110769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -4400,13 +4442,13 @@
         <v>158724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -4415,13 +4457,13 @@
         <v>269492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4478,13 @@
         <v>260637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4451,13 +4493,13 @@
         <v>320267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>805</v>
@@ -4466,13 +4508,13 @@
         <v>580904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4529,13 @@
         <v>143118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -4502,13 +4544,13 @@
         <v>84946</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -4517,13 +4559,13 @@
         <v>228064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4580,13 @@
         <v>9091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4553,13 +4595,13 @@
         <v>13468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4568,13 +4610,13 @@
         <v>22559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4631,13 @@
         <v>21308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4604,13 +4646,13 @@
         <v>11615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4619,13 +4661,13 @@
         <v>32924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4723,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4693,13 +4735,13 @@
         <v>260157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4708,13 +4750,13 @@
         <v>341615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>631</v>
@@ -4723,13 +4765,13 @@
         <v>601771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4786,13 @@
         <v>552489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>767</v>
@@ -4759,13 +4801,13 @@
         <v>530245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>1295</v>
@@ -4774,13 +4816,13 @@
         <v>1082734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4837,13 @@
         <v>179616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -4810,13 +4852,13 @@
         <v>140071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -4825,13 +4867,13 @@
         <v>319687</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4888,13 @@
         <v>16463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4861,13 +4903,13 @@
         <v>14083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -4876,13 +4918,13 @@
         <v>30546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4939,13 @@
         <v>29107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -4912,13 +4954,13 @@
         <v>26894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -4927,13 +4969,13 @@
         <v>56002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +5031,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5001,13 +5043,13 @@
         <v>137448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -5016,13 +5058,13 @@
         <v>226783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -5031,13 +5073,13 @@
         <v>364231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5094,13 @@
         <v>384057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>565</v>
@@ -5067,13 +5109,13 @@
         <v>517709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>912</v>
@@ -5082,13 +5124,13 @@
         <v>901765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5145,13 @@
         <v>167352</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -5118,13 +5160,13 @@
         <v>104839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M24" s="7">
         <v>335</v>
@@ -5133,13 +5175,13 @@
         <v>272192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5196,13 @@
         <v>9170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5169,13 +5211,13 @@
         <v>3497</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5184,13 +5226,13 @@
         <v>12667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5247,13 @@
         <v>29887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -5220,13 +5262,13 @@
         <v>19019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -5235,13 +5277,13 @@
         <v>48906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5339,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5309,13 +5351,13 @@
         <v>264205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>436</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>525</v>
@@ -5324,13 +5366,13 @@
         <v>412898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>797</v>
@@ -5339,13 +5381,13 @@
         <v>677103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5402,13 @@
         <v>492108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>777</v>
@@ -5375,13 +5417,13 @@
         <v>570499</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>1283</v>
@@ -5390,13 +5432,13 @@
         <v>1062608</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5453,13 @@
         <v>168804</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>454</v>
+        <v>384</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -5426,13 +5468,13 @@
         <v>127706</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>315</v>
+        <v>470</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M30" s="7">
         <v>387</v>
@@ -5441,13 +5483,13 @@
         <v>296510</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,10 +5507,10 @@
         <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -5477,13 +5519,13 @@
         <v>11958</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>464</v>
+        <v>312</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -5492,13 +5534,13 @@
         <v>24926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>467</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5555,13 @@
         <v>21210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>468</v>
+        <v>268</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5531,10 +5573,10 @@
         <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -5543,13 +5585,13 @@
         <v>40091</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5659,13 @@
         <v>797825</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="H34" s="7">
         <v>1572</v>
@@ -5632,13 +5674,13 @@
         <v>1187704</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="M34" s="7">
         <v>2282</v>
@@ -5647,13 +5689,13 @@
         <v>1985529</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5710,13 @@
         <v>1720673</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="H35" s="7">
         <v>2731</v>
@@ -5683,13 +5725,13 @@
         <v>1987150</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="M35" s="7">
         <v>4424</v>
@@ -5698,13 +5740,13 @@
         <v>3707824</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5761,13 @@
         <v>691318</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H36" s="7">
         <v>810</v>
@@ -5734,13 +5776,13 @@
         <v>482799</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="M36" s="7">
         <v>1570</v>
@@ -5749,13 +5791,13 @@
         <v>1174118</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>317</v>
+        <v>509</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5812,13 @@
         <v>51099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -5785,13 +5827,13 @@
         <v>43465</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>385</v>
+        <v>515</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>501</v>
+        <v>92</v>
       </c>
       <c r="M37" s="7">
         <v>132</v>
@@ -5800,13 +5842,13 @@
         <v>94564</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>502</v>
+        <v>141</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>424</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>503</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5863,13 @@
         <v>109214</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
+        <v>517</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H38" s="7">
         <v>140</v>
@@ -5836,13 +5878,13 @@
         <v>83429</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="M38" s="7">
         <v>270</v>
@@ -5851,13 +5893,13 @@
         <v>192643</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>507</v>
+        <v>192</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5955,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2200AB-F1B1-4D07-9C3A-6BEC70C2BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFB7313-ED59-4E49-8BF2-42DF5DEE6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65BC7355-8E5A-4DD9-900E-8F88C46463D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9057FB25-1FC0-4D51-9F58-DD79CC989DD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="522">
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="519">
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Tres o mas veces al dia</t>
@@ -75,1531 +75,1522 @@
     <t>30,23%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>Dos veces al dia</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>32,72%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>Dos veces al dia</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -2014,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDAA7B4-E880-4BE8-B301-31E945CE0DB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0551D5F-DB46-4E0F-BF48-673A585A4933}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,10 +2455,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -2476,13 +2467,13 @@
         <v>358796</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2488,13 @@
         <v>179929</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -2512,7 +2503,7 @@
         <v>181529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -2772,10 +2763,10 @@
         <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>705</v>
@@ -2784,13 +2775,13 @@
         <v>755353</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2796,13 @@
         <v>308074</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -2820,13 +2811,13 @@
         <v>360104</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>625</v>
@@ -2835,13 +2826,13 @@
         <v>668178</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2847,13 @@
         <v>265109</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>181</v>
@@ -2871,13 +2862,13 @@
         <v>192654</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>428</v>
@@ -2886,13 +2877,13 @@
         <v>457763</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2898,13 @@
         <v>23874</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2922,13 +2913,13 @@
         <v>13907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2937,13 +2928,13 @@
         <v>37781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2949,13 @@
         <v>74500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2973,13 +2964,13 @@
         <v>41520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2988,13 +2979,13 @@
         <v>116020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3041,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3053,13 @@
         <v>232335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -3077,13 +3068,13 @@
         <v>314956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>510</v>
@@ -3092,13 +3083,13 @@
         <v>547291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3104,13 @@
         <v>190817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>213</v>
@@ -3128,13 +3119,13 @@
         <v>225913</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>392</v>
@@ -3143,13 +3134,13 @@
         <v>416730</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3155,13 @@
         <v>212997</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -3179,13 +3170,13 @@
         <v>158789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>342</v>
@@ -3194,13 +3185,13 @@
         <v>371786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3206,13 @@
         <v>29393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3230,13 +3221,13 @@
         <v>24259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3248,10 +3239,10 @@
         <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3257,13 @@
         <v>56088</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -3281,13 +3272,13 @@
         <v>26039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -3296,13 +3287,13 @@
         <v>82127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3349,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3370,13 +3361,13 @@
         <v>404292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>494</v>
@@ -3385,13 +3376,13 @@
         <v>530331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>893</v>
@@ -3400,13 +3391,13 @@
         <v>934623</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3412,13 @@
         <v>278614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>289</v>
@@ -3436,13 +3427,13 @@
         <v>313673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>565</v>
@@ -3451,13 +3442,13 @@
         <v>592287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3463,13 @@
         <v>172450</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>122</v>
@@ -3487,13 +3478,13 @@
         <v>137072</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -3502,13 +3493,13 @@
         <v>309521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3514,13 @@
         <v>21842</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -3538,13 +3529,13 @@
         <v>10046</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -3556,10 +3547,10 @@
         <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3565,13 @@
         <v>40084</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -3589,13 +3580,13 @@
         <v>25119</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -3604,13 +3595,13 @@
         <v>65203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3669,13 @@
         <v>1159819</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>1420</v>
@@ -3693,13 +3684,13 @@
         <v>1498161</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>2517</v>
@@ -3708,13 +3699,13 @@
         <v>2657980</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3720,13 @@
         <v>990542</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>1071</v>
@@ -3744,13 +3735,13 @@
         <v>1130839</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>2020</v>
@@ -3759,13 +3750,13 @@
         <v>2121381</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3771,13 @@
         <v>805598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>605</v>
@@ -3795,13 +3786,13 @@
         <v>640242</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>1371</v>
@@ -3810,13 +3801,13 @@
         <v>1445840</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3822,13 @@
         <v>98463</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -3846,13 +3837,13 @@
         <v>62807</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
@@ -3861,13 +3852,13 @@
         <v>161270</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3873,13 @@
         <v>243546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -3897,13 +3888,13 @@
         <v>123593</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>341</v>
@@ -3912,13 +3903,13 @@
         <v>367138</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,7 +3965,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +3986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2342C8F-368C-4B92-8559-EDF977FC46B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8DE461-65AF-4A58-9FFE-137647BBC2D8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,7 +4003,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4110,13 @@
         <v>25246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -4134,13 +4125,13 @@
         <v>47684</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -4149,13 +4140,13 @@
         <v>72931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4161,13 @@
         <v>31382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -4185,13 +4176,13 @@
         <v>48430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>129</v>
@@ -4200,13 +4191,13 @@
         <v>79813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4212,13 @@
         <v>32428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -4236,13 +4227,13 @@
         <v>25237</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -4251,13 +4242,13 @@
         <v>57665</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4263,13 @@
         <v>3407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4287,13 +4278,13 @@
         <v>459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4302,13 +4293,13 @@
         <v>3866</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,10 +4317,10 @@
         <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4338,13 +4329,13 @@
         <v>7019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4353,13 +4344,13 @@
         <v>14721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4418,13 @@
         <v>110769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -4442,13 +4433,13 @@
         <v>158724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -4457,13 +4448,13 @@
         <v>269492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4469,13 @@
         <v>260637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4493,13 +4484,13 @@
         <v>320267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>805</v>
@@ -4508,13 +4499,13 @@
         <v>580904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4520,13 @@
         <v>143118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -4544,13 +4535,13 @@
         <v>84946</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -4559,13 +4550,13 @@
         <v>228064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4571,13 @@
         <v>9091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4595,13 +4586,13 @@
         <v>13468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4610,13 +4601,13 @@
         <v>22559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4622,13 @@
         <v>21308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4646,13 +4637,13 @@
         <v>11615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4661,13 +4652,13 @@
         <v>32924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4726,13 @@
         <v>260157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4750,13 +4741,13 @@
         <v>341615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>631</v>
@@ -4765,13 +4756,13 @@
         <v>601771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4777,13 @@
         <v>552489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>767</v>
@@ -4801,13 +4792,13 @@
         <v>530245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>1295</v>
@@ -4816,13 +4807,13 @@
         <v>1082734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4828,13 @@
         <v>179616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -4852,13 +4843,13 @@
         <v>140071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -4867,13 +4858,13 @@
         <v>319687</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4879,13 @@
         <v>16463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4903,13 +4894,13 @@
         <v>14083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -4918,13 +4909,13 @@
         <v>30546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4930,13 @@
         <v>29107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -4954,13 +4945,13 @@
         <v>26894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -4969,13 +4960,13 @@
         <v>56002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,7 +5022,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5043,13 +5034,13 @@
         <v>137448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -5058,13 +5049,13 @@
         <v>226783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -5073,13 +5064,13 @@
         <v>364231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5085,13 @@
         <v>384057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>565</v>
@@ -5109,13 +5100,13 @@
         <v>517709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M23" s="7">
         <v>912</v>
@@ -5124,13 +5115,13 @@
         <v>901765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5136,13 @@
         <v>167352</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -5160,13 +5151,13 @@
         <v>104839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>335</v>
@@ -5175,13 +5166,13 @@
         <v>272192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5187,13 @@
         <v>9170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5211,13 +5202,13 @@
         <v>3497</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5226,13 +5217,13 @@
         <v>12667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5238,13 @@
         <v>29887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -5262,13 +5253,13 @@
         <v>19019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -5277,13 +5268,13 @@
         <v>48906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5330,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5351,13 +5342,13 @@
         <v>264205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>525</v>
@@ -5366,13 +5357,13 @@
         <v>412898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M28" s="7">
         <v>797</v>
@@ -5381,13 +5372,13 @@
         <v>677103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5393,13 @@
         <v>492108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>777</v>
@@ -5417,13 +5408,13 @@
         <v>570499</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>1283</v>
@@ -5432,13 +5423,13 @@
         <v>1062608</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5444,13 @@
         <v>168804</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -5468,13 +5459,13 @@
         <v>127706</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M30" s="7">
         <v>387</v>
@@ -5483,13 +5474,13 @@
         <v>296510</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5495,13 @@
         <v>12968</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -5519,13 +5510,13 @@
         <v>11958</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -5534,13 +5525,13 @@
         <v>24926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>55</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5546,13 @@
         <v>21210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5573,10 +5564,10 @@
         <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -5585,13 +5576,13 @@
         <v>40091</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5650,13 @@
         <v>797825</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H34" s="7">
         <v>1572</v>
@@ -5674,13 +5665,13 @@
         <v>1187704</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M34" s="7">
         <v>2282</v>
@@ -5689,13 +5680,13 @@
         <v>1985529</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5701,13 @@
         <v>1720673</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H35" s="7">
         <v>2731</v>
@@ -5725,13 +5716,13 @@
         <v>1987150</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="M35" s="7">
         <v>4424</v>
@@ -5740,13 +5731,13 @@
         <v>3707824</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5752,13 @@
         <v>691318</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H36" s="7">
         <v>810</v>
@@ -5776,13 +5767,13 @@
         <v>482799</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M36" s="7">
         <v>1570</v>
@@ -5791,13 +5782,13 @@
         <v>1174118</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5803,13 @@
         <v>51099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -5827,13 +5818,13 @@
         <v>43465</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
         <v>132</v>
@@ -5842,13 +5833,13 @@
         <v>94564</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>141</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>231</v>
+        <v>511</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>391</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5854,13 @@
         <v>109214</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H38" s="7">
         <v>140</v>
@@ -5878,13 +5869,13 @@
         <v>83429</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M38" s="7">
         <v>270</v>
@@ -5893,13 +5884,13 @@
         <v>192643</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>192</v>
+        <v>517</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,7 +5946,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFB7313-ED59-4E49-8BF2-42DF5DEE6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E559A8F-9CEB-4B62-A217-DD4A9DCEB8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9057FB25-1FC0-4D51-9F58-DD79CC989DD2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E99157AA-F6B9-494C-8E84-B05685ABA46C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="508">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>30,23%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,58 +105,58 @@
     <t>28,92%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
     <t>35,03%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -165,10 +165,10 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -186,1351 +186,1333 @@
     <t>0,41%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>3,35%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>1,91%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>26,21%</t>
+    <t>26,04%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
-    <t>47,99%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
   </si>
   <si>
     <t>52,51%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>51,82%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>18,9%</t>
+    <t>18,86%</t>
   </si>
   <si>
     <t>22,08%</t>
@@ -1539,61 +1521,46 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0551D5F-DB46-4E0F-BF48-673A585A4933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB65B43-DB56-48DB-A1EE-487D823D6CB6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2455,10 +2422,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -2467,13 +2434,13 @@
         <v>358796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2455,13 @@
         <v>179929</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -2503,13 +2470,13 @@
         <v>181529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>355</v>
@@ -2518,13 +2485,13 @@
         <v>361458</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2506,13 @@
         <v>126291</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -2554,13 +2521,13 @@
         <v>121284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>242</v>
@@ -2569,13 +2536,13 @@
         <v>247575</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2557,13 @@
         <v>19669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2605,13 +2572,13 @@
         <v>14595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2620,13 +2587,13 @@
         <v>34264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2608,13 @@
         <v>58555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -2656,13 +2623,13 @@
         <v>24923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -2671,13 +2638,13 @@
         <v>83478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,7 +2700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2745,13 +2712,13 @@
         <v>333982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>397</v>
@@ -2760,13 +2727,13 @@
         <v>421371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>705</v>
@@ -2775,13 +2742,13 @@
         <v>755353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2763,13 @@
         <v>308074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -2811,13 +2778,13 @@
         <v>360104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>625</v>
@@ -2826,13 +2793,13 @@
         <v>668178</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2814,13 @@
         <v>265109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>181</v>
@@ -2862,13 +2829,13 @@
         <v>192654</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>428</v>
@@ -2877,13 +2844,13 @@
         <v>457763</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2865,13 @@
         <v>23874</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2913,13 +2880,13 @@
         <v>13907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2928,13 +2895,13 @@
         <v>37781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2916,13 @@
         <v>74500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2964,13 +2931,13 @@
         <v>41520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2979,13 +2946,13 @@
         <v>116020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3008,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3053,13 +3020,13 @@
         <v>232335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -3068,13 +3035,13 @@
         <v>314956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>510</v>
@@ -3083,13 +3050,13 @@
         <v>547291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3071,13 @@
         <v>190817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>213</v>
@@ -3119,13 +3086,13 @@
         <v>225913</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>392</v>
@@ -3134,13 +3101,13 @@
         <v>416730</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3122,13 @@
         <v>212997</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -3170,13 +3137,13 @@
         <v>158789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>342</v>
@@ -3185,13 +3152,13 @@
         <v>371786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3173,13 @@
         <v>29393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3221,13 +3188,13 @@
         <v>24259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3236,13 +3203,13 @@
         <v>53652</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3224,13 @@
         <v>56088</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -3272,13 +3239,13 @@
         <v>26039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -3287,13 +3254,13 @@
         <v>82127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3316,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3361,13 +3328,13 @@
         <v>404292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>494</v>
@@ -3376,13 +3343,13 @@
         <v>530331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>893</v>
@@ -3391,13 +3358,13 @@
         <v>934623</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3379,13 @@
         <v>278614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>289</v>
@@ -3427,13 +3394,13 @@
         <v>313673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>565</v>
@@ -3442,13 +3409,13 @@
         <v>592287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3430,13 @@
         <v>172450</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>122</v>
@@ -3478,13 +3445,13 @@
         <v>137072</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -3493,13 +3460,13 @@
         <v>309521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3481,13 @@
         <v>21842</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -3529,13 +3496,13 @@
         <v>10046</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -3547,10 +3514,10 @@
         <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3532,13 @@
         <v>40084</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -3580,13 +3547,13 @@
         <v>25119</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -3595,13 +3562,13 @@
         <v>65203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3595,7 @@
         <v>935</v>
       </c>
       <c r="I33" s="7">
-        <v>1016242</v>
+        <v>1016241</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3669,13 +3636,13 @@
         <v>1159819</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>1420</v>
@@ -3684,13 +3651,13 @@
         <v>1498161</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>2517</v>
@@ -3699,13 +3666,13 @@
         <v>2657980</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3687,13 @@
         <v>990542</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1071</v>
@@ -3735,13 +3702,13 @@
         <v>1130839</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>2020</v>
@@ -3750,13 +3717,13 @@
         <v>2121381</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3738,13 @@
         <v>805598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>605</v>
@@ -3786,13 +3753,13 @@
         <v>640242</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>1371</v>
@@ -3801,13 +3768,13 @@
         <v>1445840</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3789,13 @@
         <v>98463</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -3837,13 +3804,13 @@
         <v>62807</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
@@ -3852,13 +3819,13 @@
         <v>161270</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3840,13 @@
         <v>243546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -3888,13 +3855,13 @@
         <v>123593</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>341</v>
@@ -3903,13 +3870,13 @@
         <v>367138</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,7 +3932,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8DE461-65AF-4A58-9FFE-137647BBC2D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A720B-3A40-4319-BC75-96969C69BFBB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4003,7 +3970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4110,13 +4077,13 @@
         <v>25246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -4125,13 +4092,13 @@
         <v>47684</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -4140,13 +4107,13 @@
         <v>72931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4128,13 @@
         <v>31382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -4176,13 +4143,13 @@
         <v>48430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>129</v>
@@ -4191,13 +4158,13 @@
         <v>79813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4179,13 @@
         <v>32428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -4227,13 +4194,13 @@
         <v>25237</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -4242,13 +4209,13 @@
         <v>57665</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4230,13 @@
         <v>3407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4278,13 +4245,13 @@
         <v>459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4293,13 +4260,13 @@
         <v>3866</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4281,13 @@
         <v>7702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4329,13 +4296,13 @@
         <v>7019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4344,7 +4311,7 @@
         <v>14721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>314</v>
@@ -4424,7 +4391,7 @@
         <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -4433,13 +4400,13 @@
         <v>158724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -4448,13 +4415,13 @@
         <v>269492</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4436,13 @@
         <v>260637</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4484,13 +4451,13 @@
         <v>320267</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>805</v>
@@ -4499,13 +4466,13 @@
         <v>580904</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4487,13 @@
         <v>143118</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -4535,13 +4502,13 @@
         <v>84946</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -4550,13 +4517,13 @@
         <v>228064</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4538,13 @@
         <v>9091</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4586,13 +4553,13 @@
         <v>13468</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4601,13 +4568,13 @@
         <v>22559</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4589,13 @@
         <v>21308</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4637,13 +4604,13 @@
         <v>11615</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4652,13 +4619,13 @@
         <v>32924</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,7 +4681,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4726,13 +4693,13 @@
         <v>260157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4741,13 +4708,13 @@
         <v>341615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>631</v>
@@ -4756,13 +4723,13 @@
         <v>601771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4744,13 @@
         <v>552489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>767</v>
@@ -4792,13 +4759,13 @@
         <v>530245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>1295</v>
@@ -4807,13 +4774,13 @@
         <v>1082734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4795,13 @@
         <v>179616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -4843,13 +4810,13 @@
         <v>140071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -4858,13 +4825,13 @@
         <v>319687</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4846,13 @@
         <v>16463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4894,13 +4861,13 @@
         <v>14083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -4909,13 +4876,13 @@
         <v>30546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4897,13 @@
         <v>29107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -4945,13 +4912,13 @@
         <v>26894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -4960,13 +4927,13 @@
         <v>56002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +4989,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5034,13 +5001,13 @@
         <v>137448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -5049,13 +5016,13 @@
         <v>226783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -5064,13 +5031,13 @@
         <v>364231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5052,13 @@
         <v>384057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>565</v>
@@ -5100,13 +5067,13 @@
         <v>517709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>912</v>
@@ -5115,13 +5082,13 @@
         <v>901765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5103,13 @@
         <v>167352</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -5151,13 +5118,13 @@
         <v>104839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>302</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M24" s="7">
         <v>335</v>
@@ -5166,13 +5133,13 @@
         <v>272192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5154,13 @@
         <v>9170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5202,13 +5169,13 @@
         <v>3497</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5217,13 +5184,13 @@
         <v>12667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5205,13 @@
         <v>29887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -5253,13 +5220,13 @@
         <v>19019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -5268,13 +5235,13 @@
         <v>48906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5297,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5342,13 +5309,13 @@
         <v>264205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>436</v>
       </c>
       <c r="H28" s="7">
         <v>525</v>
@@ -5357,13 +5324,13 @@
         <v>412898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>797</v>
@@ -5372,13 +5339,13 @@
         <v>677103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>28</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5360,13 @@
         <v>492108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>777</v>
@@ -5408,13 +5375,13 @@
         <v>570499</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>1283</v>
@@ -5423,13 +5390,13 @@
         <v>1062608</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5411,13 @@
         <v>168804</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -5459,13 +5426,13 @@
         <v>127706</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>461</v>
+        <v>315</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M30" s="7">
         <v>387</v>
@@ -5474,13 +5441,13 @@
         <v>296510</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5462,13 @@
         <v>12968</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -5510,13 +5477,13 @@
         <v>11958</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>305</v>
+        <v>464</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -5525,13 +5492,13 @@
         <v>24926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5513,13 @@
         <v>21210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5564,10 +5531,10 @@
         <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -5576,13 +5543,13 @@
         <v>40091</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5617,13 @@
         <v>797825</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H34" s="7">
         <v>1572</v>
@@ -5665,13 +5632,13 @@
         <v>1187704</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="M34" s="7">
         <v>2282</v>
@@ -5680,13 +5647,13 @@
         <v>1985529</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5668,13 @@
         <v>1720673</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>2731</v>
@@ -5716,13 +5683,13 @@
         <v>1987150</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>4424</v>
@@ -5731,13 +5698,13 @@
         <v>3707824</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5719,13 @@
         <v>691318</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>810</v>
@@ -5767,13 +5734,13 @@
         <v>482799</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>1570</v>
@@ -5782,13 +5749,13 @@
         <v>1174118</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>502</v>
+        <v>317</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>382</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5770,13 @@
         <v>51099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>389</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -5818,13 +5785,13 @@
         <v>43465</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>508</v>
+        <v>385</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M37" s="7">
         <v>132</v>
@@ -5833,13 +5800,13 @@
         <v>94564</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5821,13 @@
         <v>109214</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>180</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H38" s="7">
         <v>140</v>
@@ -5869,13 +5836,13 @@
         <v>83429</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>270</v>
@@ -5884,13 +5851,13 @@
         <v>192643</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>180</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>518</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,7 +5913,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
